--- a/data/trans_camb/P10_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P10_1_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,35</t>
+          <t>-2,81; 1,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,99</t>
+          <t>-2,46; 1,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 4,97</t>
+          <t>-2,28; 4,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 4,51</t>
+          <t>-0,45; 4,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 2,75</t>
+          <t>-1,63; 2,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 11,63</t>
+          <t>1,77; 10,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,03</t>
+          <t>-0,85; 2,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,74</t>
+          <t>-1,36; 1,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 6,02</t>
+          <t>0,28; 6,15</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-71,21; 102,89</t>
+          <t>-73,51; 91,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-68,34; 141,31</t>
+          <t>-66,69; 136,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,05; 287,05</t>
+          <t>-96,4; 278,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 263,22</t>
+          <t>-16,12; 251,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,12; 176,73</t>
+          <t>-46,81; 160,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,26; 620,05</t>
+          <t>45,66; 565,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-34,15; 100,84</t>
+          <t>-26,29; 116,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,79; 88,69</t>
+          <t>-43,3; 102,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 309,83</t>
+          <t>3,95; 286,68</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,48</t>
+          <t>-2,3; 1,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 3,38</t>
+          <t>-1,0; 3,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 1,85</t>
+          <t>-2,9; 1,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 1,09</t>
+          <t>-4,69; 1,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 0,16</t>
+          <t>-5,53; 0,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 3,04</t>
+          <t>-4,05; 2,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 0,7</t>
+          <t>-2,61; 0,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,39</t>
+          <t>-2,26; 1,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,8</t>
+          <t>-2,44; 1,81</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-53,29; 68,57</t>
+          <t>-53,84; 74,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,08; 139,59</t>
+          <t>-26,39; 137,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-76,42; 80,38</t>
+          <t>-74,71; 93,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-53,67; 20,68</t>
+          <t>-53,18; 26,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,07; 5,58</t>
+          <t>-59,18; 6,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,77; 51,52</t>
+          <t>-47,08; 48,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-44,69; 17,76</t>
+          <t>-44,88; 18,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,15; 31,24</t>
+          <t>-38,82; 25,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,03; 42,64</t>
+          <t>-43,17; 40,47</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,88</t>
+          <t>-0,94; 3,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 3,03</t>
+          <t>-1,82; 3,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,53</t>
+          <t>-0,9; 4,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 7,95</t>
+          <t>1,62; 8,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,7</t>
+          <t>-2,54; 2,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 1,56</t>
+          <t>-3,43; 1,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,17</t>
+          <t>0,94; 4,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,05</t>
+          <t>-1,44; 2,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,2</t>
+          <t>-1,65; 2,07</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,53; 128,84</t>
+          <t>-20,71; 128,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,76; 111,95</t>
+          <t>-33,11; 104,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,47; 151,28</t>
+          <t>-21,24; 138,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,81; 148,67</t>
+          <t>18,94; 147,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,43; 50,58</t>
+          <t>-32,61; 51,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,66; 27,97</t>
+          <t>-40,64; 28,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,57; 110,23</t>
+          <t>14,57; 107,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 45,57</t>
+          <t>-22,9; 47,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 48,02</t>
+          <t>-24,14; 44,82</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 3,76</t>
+          <t>-2,25; 3,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,81</t>
+          <t>-2,28; 3,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 2,99</t>
+          <t>-2,76; 3,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 6,27</t>
+          <t>-1,78; 6,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 2,75</t>
+          <t>-4,81; 2,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 2,14</t>
+          <t>-5,26; 2,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,97</t>
+          <t>-1,08; 4,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,41</t>
+          <t>-2,55; 2,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 1,88</t>
+          <t>-2,96; 1,86</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,93; 79,49</t>
+          <t>-27,97; 86,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,81; 81,15</t>
+          <t>-29,66; 72,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-40,04; 62,86</t>
+          <t>-35,38; 74,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 68,57</t>
+          <t>-13,4; 68,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,09; 31,33</t>
+          <t>-34,84; 33,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,17; 24,74</t>
+          <t>-39,59; 24,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 51,9</t>
+          <t>-11,17; 52,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,78; 33,08</t>
+          <t>-25,64; 29,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 24,73</t>
+          <t>-30,31; 25,66</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 5,29</t>
+          <t>-2,85; 5,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 1,71</t>
+          <t>-5,14; 2,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 2,34</t>
+          <t>-4,16; 2,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,47; 15,02</t>
+          <t>4,62; 14,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,99; 11,49</t>
+          <t>2,03; 11,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 6,15</t>
+          <t>-1,69; 5,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,73</t>
+          <t>2,17; 8,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 5,3</t>
+          <t>0,1; 5,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 3,52</t>
+          <t>-1,88; 3,22</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 88,22</t>
+          <t>-27,15; 82,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-49,26; 27,43</t>
+          <t>-50,95; 32,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-43,36; 39,03</t>
+          <t>-40,6; 39,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>32,87; 173,59</t>
+          <t>35,4; 169,37</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>13,72; 133,82</t>
+          <t>15,33; 133,85</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 73,02</t>
+          <t>-11,79; 67,46</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>20,57; 107,54</t>
+          <t>19,54; 105,8</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 63,93</t>
+          <t>-0,19; 72,5</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 43,86</t>
+          <t>-16,79; 40,3</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 6,82</t>
+          <t>-1,79; 6,83</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 0,17</t>
+          <t>-7,42; 0,07</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,42; -1,24</t>
+          <t>-8,38; -1,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7,64; 16,9</t>
+          <t>7,29; 16,14</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,81; 13,03</t>
+          <t>3,84; 12,82</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 6,43</t>
+          <t>-3,89; 6,69</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,42; 11,02</t>
+          <t>4,77; 11,03</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,06; 6,22</t>
+          <t>0,29; 6,14</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 2,66</t>
+          <t>-3,48; 2,71</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 55,61</t>
+          <t>-11,76; 58,4</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-48,0; 1,53</t>
+          <t>-46,63; 0,88</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-51,03; -10,08</t>
+          <t>-51,04; -11,81</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>40,64; 118,39</t>
+          <t>38,5; 112,03</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>19,93; 91,39</t>
+          <t>20,61; 89,49</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 42,63</t>
+          <t>-20,62; 44,97</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>24,51; 78,45</t>
+          <t>27,71; 79,08</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>0,34; 44,87</t>
+          <t>1,67; 45,35</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-22,92; 18,82</t>
+          <t>-20,5; 19,48</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,34</t>
+          <t>-0,08; 2,4</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,11</t>
+          <t>-1,12; 1,22</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,4</t>
+          <t>-1,02; 1,44</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,64</t>
+          <t>3,58; 6,92</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,4</t>
+          <t>1,32; 4,26</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,6</t>
+          <t>0,44; 3,59</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,22</t>
+          <t>2,21; 4,3</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,34</t>
+          <t>0,4; 2,44</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,43</t>
+          <t>0,3; 2,3</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 44,0</t>
+          <t>-1,17; 43,93</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 21,52</t>
+          <t>-17,3; 22,54</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 25,74</t>
+          <t>-15,49; 26,27</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>35,14; 75,35</t>
+          <t>35,19; 79,23</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>11,89; 51,67</t>
+          <t>12,71; 48,66</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>5,93; 40,75</t>
+          <t>4,54; 41,05</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>25,88; 58,26</t>
+          <t>26,82; 58,6</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>6,0; 32,22</t>
+          <t>4,79; 32,85</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>4,75; 33,6</t>
+          <t>3,75; 31,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P10_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P10_1_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,33</t>
+          <t>-2,6; 1,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,91</t>
+          <t>-2,48; 1,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 4,44</t>
+          <t>-2,37; 4,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 4,2</t>
+          <t>-0,34; 4,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,74</t>
+          <t>-1,78; 2,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 10,9</t>
+          <t>1,68; 10,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,14</t>
+          <t>-1,02; 2,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,76</t>
+          <t>-1,46; 1,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 6,15</t>
+          <t>0,37; 6,1</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-73,51; 91,89</t>
+          <t>-70,07; 85,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-66,69; 136,44</t>
+          <t>-67,5; 120,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-96,4; 278,42</t>
+          <t>-88,58; 310,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 251,31</t>
+          <t>-15,43; 262,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,81; 160,12</t>
+          <t>-51,1; 152,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,66; 565,44</t>
+          <t>31,18; 550,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,29; 116,05</t>
+          <t>-31,55; 117,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,3; 102,47</t>
+          <t>-46,01; 91,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 286,68</t>
+          <t>5,07; 288,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,65</t>
+          <t>-2,21; 1,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 3,37</t>
+          <t>-0,99; 3,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 1,95</t>
+          <t>-2,97; 1,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 1,22</t>
+          <t>-4,73; 0,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 0,12</t>
+          <t>-5,42; 0,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 2,73</t>
+          <t>-3,63; 3,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,75</t>
+          <t>-2,73; 0,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,12</t>
+          <t>-2,18; 1,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,81</t>
+          <t>-2,53; 1,79</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-53,84; 74,43</t>
+          <t>-52,64; 70,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 137,94</t>
+          <t>-25,85; 152,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-74,71; 93,69</t>
+          <t>-75,32; 68,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-53,18; 26,95</t>
+          <t>-53,29; 18,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,18; 6,75</t>
+          <t>-61,49; 5,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,08; 48,69</t>
+          <t>-43,52; 52,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-44,88; 18,31</t>
+          <t>-45,52; 15,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,82; 25,68</t>
+          <t>-36,97; 28,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,17; 40,47</t>
+          <t>-43,23; 38,95</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,82</t>
+          <t>-1,05; 3,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 3,19</t>
+          <t>-2,05; 3,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,25</t>
+          <t>-1,04; 4,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 8,0</t>
+          <t>1,86; 7,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,65</t>
+          <t>-2,57; 2,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 1,52</t>
+          <t>-3,21; 1,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,94</t>
+          <t>1,02; 5,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,09</t>
+          <t>-1,58; 2,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,07</t>
+          <t>-1,61; 2,23</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 128,29</t>
+          <t>-20,3; 138,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,11; 104,78</t>
+          <t>-37,91; 104,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 138,71</t>
+          <t>-21,6; 163,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,94; 147,69</t>
+          <t>23,44; 150,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 51,51</t>
+          <t>-33,97; 48,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,64; 28,2</t>
+          <t>-40,97; 31,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,57; 107,63</t>
+          <t>14,38; 109,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,9; 47,46</t>
+          <t>-24,61; 43,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 44,82</t>
+          <t>-26,0; 48,87</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 3,93</t>
+          <t>-2,53; 3,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 3,58</t>
+          <t>-2,34; 3,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 3,47</t>
+          <t>-2,99; 3,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 6,27</t>
+          <t>-1,73; 6,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 2,98</t>
+          <t>-4,36; 2,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 2,29</t>
+          <t>-5,33; 2,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,02</t>
+          <t>-1,11; 4,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 2,18</t>
+          <t>-2,48; 2,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 1,86</t>
+          <t>-2,95; 1,88</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 86,23</t>
+          <t>-32,85; 77,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,66; 72,12</t>
+          <t>-28,96; 82,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,38; 74,24</t>
+          <t>-37,06; 72,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 68,02</t>
+          <t>-12,46; 66,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,84; 33,62</t>
+          <t>-33,22; 33,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-39,59; 24,0</t>
+          <t>-39,11; 22,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 52,38</t>
+          <t>-10,95; 53,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 29,76</t>
+          <t>-23,9; 33,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-30,31; 25,66</t>
+          <t>-29,68; 25,59</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 5,14</t>
+          <t>-2,53; 5,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 2,06</t>
+          <t>-5,08; 1,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 2,55</t>
+          <t>-4,19; 2,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,62; 14,55</t>
+          <t>5,03; 14,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,03; 11,55</t>
+          <t>2,41; 11,51</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 5,62</t>
+          <t>-1,28; 5,99</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,17; 8,86</t>
+          <t>2,42; 9,01</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,1; 5,91</t>
+          <t>-0,24; 5,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 3,22</t>
+          <t>-1,85; 3,19</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-27,15; 82,49</t>
+          <t>-25,63; 87,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-50,95; 32,69</t>
+          <t>-50,99; 31,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,6; 39,22</t>
+          <t>-39,08; 43,02</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>35,4; 169,37</t>
+          <t>36,43; 166,71</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>15,33; 133,85</t>
+          <t>17,35; 133,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 67,46</t>
+          <t>-9,29; 73,23</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>19,54; 105,8</t>
+          <t>21,51; 105,17</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 72,5</t>
+          <t>-2,32; 72,58</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-16,79; 40,3</t>
+          <t>-17,18; 38,52</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 6,83</t>
+          <t>-2,44; 6,76</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 0,07</t>
+          <t>-7,8; 0,25</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,38; -1,35</t>
+          <t>-8,45; -1,3</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7,29; 16,14</t>
+          <t>7,9; 16,43</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,84; 12,82</t>
+          <t>3,81; 12,75</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 6,69</t>
+          <t>-3,63; 6,71</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,77; 11,03</t>
+          <t>4,69; 10,95</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,29; 6,14</t>
+          <t>0,12; 6,13</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 2,71</t>
+          <t>-4,02; 2,5</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 58,4</t>
+          <t>-14,86; 58,59</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-46,63; 0,88</t>
+          <t>-46,9; 2,72</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-51,04; -11,81</t>
+          <t>-49,37; -10,34</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>38,5; 112,03</t>
+          <t>41,62; 113,35</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>20,61; 89,49</t>
+          <t>20,22; 90,28</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-20,62; 44,97</t>
+          <t>-19,63; 45,33</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>27,71; 79,08</t>
+          <t>28,7; 80,25</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1,67; 45,35</t>
+          <t>0,64; 43,16</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-20,5; 19,48</t>
+          <t>-23,73; 17,72</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,4</t>
+          <t>-0,22; 2,17</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,22</t>
+          <t>-1,22; 1,17</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,44</t>
+          <t>-1,02; 1,34</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,92</t>
+          <t>3,69; 6,91</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,26</t>
+          <t>1,17; 4,38</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,59</t>
+          <t>0,5; 3,64</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,3</t>
+          <t>2,17; 4,23</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,44</t>
+          <t>0,51; 2,47</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,3</t>
+          <t>0,32; 2,22</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 43,93</t>
+          <t>-3,53; 39,25</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 22,54</t>
+          <t>-18,7; 21,36</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 26,27</t>
+          <t>-15,33; 23,78</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>35,19; 79,23</t>
+          <t>37,59; 80,64</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>12,71; 48,66</t>
+          <t>11,87; 50,58</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>4,54; 41,05</t>
+          <t>5,05; 42,28</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>26,82; 58,6</t>
+          <t>26,41; 57,37</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>4,79; 32,85</t>
+          <t>6,46; 33,7</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>3,75; 31,53</t>
+          <t>3,78; 30,04</t>
         </is>
       </c>
     </row>
